--- a/VersionRecords/Version 5.0.3.3 20161014/版本Bug和特性计划及评审表v5.0.3.3.xlsx
+++ b/VersionRecords/Version 5.0.3.3 20161014/版本Bug和特性计划及评审表v5.0.3.3.xlsx
@@ -201,10 +201,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>解决短信合并发送空指针异常的问题</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>BS、定时器（tasktracker）</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -318,6 +314,10 @@
   </si>
   <si>
     <t>微信绑定</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决短信合并发送空指针异常的问题</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1394,7 +1394,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1580,13 +1580,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>41</v>
@@ -1602,16 +1602,16 @@
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="L4" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="M4" s="68" t="s">
         <v>58</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>59</v>
       </c>
       <c r="N4" s="67">
         <v>42657</v>
@@ -1630,13 +1630,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="66" t="s">
         <v>41</v>
@@ -1652,16 +1652,16 @@
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="L5" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="68" t="s">
-        <v>64</v>
-      </c>
       <c r="M5" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="67">
         <v>42657</v>
@@ -1680,13 +1680,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="D6" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="E6" s="66" t="s">
         <v>41</v>
@@ -1702,16 +1702,16 @@
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="L6" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="68" t="s">
-        <v>70</v>
-      </c>
       <c r="M6" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" s="67">
         <v>42657</v>
@@ -5792,7 +5792,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="79" t="s">
         <v>35</v>
@@ -5804,10 +5804,10 @@
         <v>31</v>
       </c>
       <c r="G4" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="79" t="s">
         <v>72</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>73</v>
       </c>
       <c r="I4" s="78" t="s">
         <v>32</v>
@@ -5833,7 +5833,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>35</v>
@@ -5845,10 +5845,10 @@
         <v>31</v>
       </c>
       <c r="G5" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="79" t="s">
         <v>74</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>75</v>
       </c>
       <c r="I5" s="78" t="s">
         <v>32</v>
